--- a/biology/Botanique/Taille_(arboriculture)/Taille_(arboriculture).xlsx
+++ b/biology/Botanique/Taille_(arboriculture)/Taille_(arboriculture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille est une opération pratiquée sur les végétaux ligneux ou non, qui consiste à modifier la forme et la dimension spontanées de ces plantes en raccourcissant (voire en supprimant) certaines branches ainsi que des rameaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille est une opération pratiquée sur les végétaux ligneux ou non, qui consiste à modifier la forme et la dimension spontanées de ces plantes en raccourcissant (voire en supprimant) certaines branches ainsi que des rameaux.
 Elle est destinée à orienter la croissance (taille de mise en forme), à maîtriser la fructification (taille de fructification), ou à limiter la couverture foliaire (taille en vert) pour favoriser la maturation des fruits, par exemple.
 Plus la taille est importante, plus l'arbre réagit par le développement vigoureux de rameaux à bois au détriment de la mise à fruit.
 </t>
@@ -513,7 +525,9 @@
           <t>Types de tailles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe différents types de tailles. Voici du plus bénin au plus sévère :
 Ébourgeonnage : enlèvement des bourgeons afin de contrôler les branches qui survivront (on parle souvent de « pincement » car on pince le bourgeon entre ses doigts pour le sectionner). C'est la plus bénigne façon de contrôler la forme d'un arbre ou d'un arbuste. En enlevant les bourgeons terminaux sur une branche, on empêche sa croissance et si on enlève tous les bourgeons, la branche dépérira et finira par tomber d'elle-même ;
@@ -549,12 +563,14 @@
           <t>Taille de mise en forme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En arboriculture, le développement harmonieux des arbres et arbustes est contrôlé et maîtrisé par l'enlèvement des branches et rameaux mal situés, quelquefois complété de la déformation des jeunes rameaux encore souples (palmettes Verrier par exemple) soit pour pallier une forme déséquilibrée, soit pour obtenir une forme particulière, tant dans un but esthétique que productif.
 Les arbres fruitiers subissent souvent une taille de mise en forme, soit pour faciliter les opérations culturales (facilité de labours, de traitements, de cueillette), soit pour diminuer la sensibilité aux gelées.
 			Arbres têtards après leur taille complète.
-			Une taille sur tête de chat[6] (appelée aussi tête de saule ou marotte).
+			Une taille sur tête de chat (appelée aussi tête de saule ou marotte).
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Taille de fructification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En arboriculture fruitière, la taille a principalement pour but d'améliorer la fructification.
 </t>
@@ -614,7 +632,9 @@
           <t>Taille ornementale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'art topiaire consiste dans la taille ornementale des arbres et arbustes dans le but principal de former des haies, des massifs, des broderies végétales ou des arbres ou arbustes isolés aux formes remarquables pour un résultat avant tout décoratif.
 </t>
@@ -645,7 +665,9 @@
           <t>Taille de la vigne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La vigne est une plante liane. La taille est importante pour limiter la croissance en hauteur et stimuler la production de fruits. Elle se distingue des autres plantes par la variété des méthodes et le nombre des opérations. La taille de mise en forme est destinée à positionner la production en hauteur. Chaque vignoble a sa forme optimale, guidée par le climat, permettant de résister au gelées tardives, aux effets du soleil, aux causes de dessèchement, ou au contraire d'éviter l'humidité constante propice aux maladies. La taille de fructification est adaptée à la vigueur de chaque cépage, et la taille en vert est souvent pratiquée pour que les grappes soient exposées aux rayons solaires, et ne restent pas humides en permanence.
 </t>
@@ -676,7 +698,9 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La technique de la taille est très simple : 
 on coupe les rameaux inutiles, presque exclusivement au sécateur. Des rameaux exceptionnellement robustes, surtout s'ils résultent d'une taille précédente mal réalisée, peuvent être coupés avec une scie : dans ce cas, la cicatrisation sera plus difficile et doit être facilitée par des soins spécifiques (masticage).
@@ -712,7 +736,9 @@
           <t>Périodes de taille</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les arbustes :
 Troène (Ligustrum lucidum) - Début de printemps et milieu d'été
